--- a/Data/WP.xlsx
+++ b/Data/WP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\Documents\My Dropbox\Work\PhD\Publications, Reports and Responsibilities\Chapters\3. Effects of invasive species on ecosystem services\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\Documents\My Dropbox\Work\PhD\Publications, Reports and Responsibilities\Chapters\3. Effects of invasive species on ecosystem services\Invasive_traits\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,49 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="275">
-  <si>
-    <t>Measure of EF used</t>
-  </si>
-  <si>
-    <t>Units used for EF</t>
-  </si>
-  <si>
-    <t>EF UI</t>
-  </si>
-  <si>
-    <t>SE UI</t>
-  </si>
-  <si>
-    <t>Sample size UI</t>
-  </si>
-  <si>
-    <t>EF I</t>
-  </si>
-  <si>
-    <t>SE I</t>
-  </si>
-  <si>
-    <t>Sample size I</t>
-  </si>
-  <si>
-    <t>Service Yes/No</t>
-  </si>
-  <si>
-    <t>Ecosystem Service Type</t>
-  </si>
-  <si>
-    <t>Level of organisation</t>
-  </si>
-  <si>
-    <t>Positively/negatively related to ES</t>
-  </si>
-  <si>
-    <t>Rationale for inclusion as ES</t>
-  </si>
-  <si>
-    <t>Related final service</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="215">
   <si>
     <t>Uninvaded richness</t>
   </si>
@@ -81,207 +39,75 @@
     <t>Invasive</t>
   </si>
   <si>
-    <t>Gravimetric soil moisture</t>
-  </si>
-  <si>
-    <t>Percentage soil weight</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Water infiltration</t>
-  </si>
-  <si>
-    <t>Intermediate Service</t>
-  </si>
-  <si>
-    <t>Positively</t>
-  </si>
-  <si>
-    <t>Soil moisture can be related to soil water infiltration which is related to water regulation</t>
-  </si>
-  <si>
-    <t>Water provision</t>
-  </si>
-  <si>
     <t>Grass sp</t>
   </si>
   <si>
     <t>Melilotus spp</t>
   </si>
   <si>
-    <t>Soil water content</t>
-  </si>
-  <si>
-    <t>% soil water content (0-10cm depth)</t>
-  </si>
-  <si>
-    <t>Can be related to water infiltration</t>
-  </si>
-  <si>
     <t>Eleocharis smallii</t>
   </si>
   <si>
     <t>Typha x glauca</t>
   </si>
   <si>
-    <t>Soil moisture content</t>
-  </si>
-  <si>
-    <t>Percentage moisture content of soil fresh weight</t>
-  </si>
-  <si>
-    <t>May be related to water availability?</t>
-  </si>
-  <si>
     <t>Styphelia tameiameiae</t>
   </si>
   <si>
     <t>Melinis minutiflora</t>
   </si>
   <si>
-    <t>Volumetric soil moisture</t>
-  </si>
-  <si>
-    <t>percentage soil moisture</t>
-  </si>
-  <si>
     <t>Pluchea sericea</t>
   </si>
   <si>
     <t>Tamarix ramosissima</t>
   </si>
   <si>
-    <t>Soil moisture percentage</t>
-  </si>
-  <si>
-    <t>Percent soil moisture</t>
-  </si>
-  <si>
-    <t>Soil moisture may be possible to relate to water availability</t>
-  </si>
-  <si>
     <t>Ulmus minor</t>
   </si>
   <si>
     <t>Alianthis altissima</t>
   </si>
   <si>
-    <t>Soil moisture</t>
-  </si>
-  <si>
-    <t>Percentage soil moisture</t>
-  </si>
-  <si>
-    <t>May be able to be related to water provision</t>
-  </si>
-  <si>
     <t>Fraxinus angustifolia</t>
   </si>
   <si>
     <t>Robinia pseudoacacia</t>
   </si>
   <si>
-    <t>Percentage soil moisture (0-10cm depth)</t>
-  </si>
-  <si>
-    <t>Soil moisture may possibly be related to water regulation</t>
-  </si>
-  <si>
     <t>Metrosideros polymorpha</t>
   </si>
   <si>
     <t>Hedychium gardnerianum</t>
   </si>
   <si>
-    <t>Annual evapotranspiration</t>
-  </si>
-  <si>
-    <t>Centimetres per year</t>
-  </si>
-  <si>
-    <t>Evapotranspiration</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Populus deltoides</t>
   </si>
   <si>
     <t>Tamarix chinensis</t>
   </si>
   <si>
-    <t>Groundwater depth</t>
-  </si>
-  <si>
-    <t>centimetres</t>
-  </si>
-  <si>
-    <t>Negatively</t>
-  </si>
-  <si>
-    <t>millimetres of water per day</t>
-  </si>
-  <si>
-    <t>Can be related to water provision</t>
-  </si>
-  <si>
     <t>Artemisia tridentata</t>
   </si>
   <si>
     <t>Agropyron cristatum</t>
   </si>
   <si>
-    <t>Mean daily evapotranspiration</t>
-  </si>
-  <si>
     <t>Tamarix spp</t>
   </si>
   <si>
-    <t>Water loss</t>
-  </si>
-  <si>
-    <t>water loss in metres</t>
-  </si>
-  <si>
-    <t>Final Service</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Annual total goundwater loss</t>
-  </si>
-  <si>
-    <t>metres</t>
-  </si>
-  <si>
-    <t>Percentage soil moisture (0-20cm)</t>
-  </si>
-  <si>
-    <t>grams of water per grams of wet soil</t>
-  </si>
-  <si>
-    <t>May be related to water provision</t>
-  </si>
-  <si>
     <t>Myrica cerifera</t>
   </si>
   <si>
-    <t>percentage soil water content</t>
-  </si>
-  <si>
     <t>Taxodium distichum</t>
   </si>
   <si>
     <t>Melaleuca quinquenervia</t>
   </si>
   <si>
-    <t>Could be related to water infiltration</t>
-  </si>
-  <si>
     <t>Schizachyrium condensatum</t>
   </si>
   <si>
@@ -291,39 +117,21 @@
     <t>Ageratina adenophora</t>
   </si>
   <si>
-    <t>millilitres per 100 gram of soil</t>
-  </si>
-  <si>
     <t>Poa pratensis</t>
   </si>
   <si>
     <t>Bromus spp</t>
   </si>
   <si>
-    <t>Positively related to water infiltration</t>
-  </si>
-  <si>
-    <t>millimols of carbon dioxide per metre squared per second</t>
-  </si>
-  <si>
-    <t>Negatively related to water provision</t>
-  </si>
-  <si>
     <t>Avena fatua</t>
   </si>
   <si>
     <t>Cynara cardunculus</t>
   </si>
   <si>
-    <t>percentage</t>
-  </si>
-  <si>
     <t>Eragrostis lehmanniana</t>
   </si>
   <si>
-    <t>Groundwater usage</t>
-  </si>
-  <si>
     <t>Schinus terebinthifolius</t>
   </si>
   <si>
@@ -348,18 +156,12 @@
     <t>Mimulus guttatus</t>
   </si>
   <si>
-    <t>Soil molybdenum</t>
-  </si>
-  <si>
     <t>Schizachyrium scoparium</t>
   </si>
   <si>
     <t>Sorghum halepense</t>
   </si>
   <si>
-    <t>Soil Water content</t>
-  </si>
-  <si>
     <t>Scirpus mariqueter</t>
   </si>
   <si>
@@ -850,6 +652,24 @@
   </si>
   <si>
     <t>Vicia americana</t>
+  </si>
+  <si>
+    <t>M_UI</t>
+  </si>
+  <si>
+    <t>SE_UI</t>
+  </si>
+  <si>
+    <t>SS_UI</t>
+  </si>
+  <si>
+    <t>M_I</t>
+  </si>
+  <si>
+    <t>SE_I</t>
+  </si>
+  <si>
+    <t>SS_I</t>
   </si>
 </sst>
 </file>
@@ -1238,1060 +1058,589 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:T40"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>10.690675000000001</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.7627999999999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3">
+        <v>8.3153500000000005</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2.2911000000000001</v>
+      </c>
+      <c r="F2" s="3">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H2" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>26.6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>33.9</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.76</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C4" s="3">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>14.6525</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.71637621399999996</v>
+      </c>
+      <c r="C5" s="3">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
+        <v>14.0732</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.71637621399999996</v>
+      </c>
+      <c r="F5" s="3">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>24.733333330000001</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4.550549417</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>21.8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.9909272109999998</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.8096961069999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>18.7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.3162469639999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10.690675000000001</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2.7627999999999999</v>
-      </c>
-      <c r="E2" s="3">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3">
-        <v>8.3153500000000005</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2.2911000000000001</v>
-      </c>
-      <c r="H2" s="3">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P2" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" t="e">
-        <f>VLOOKUP(Q2,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T2" t="e">
-        <f>VLOOKUP(R2,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3">
-        <v>26.6</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>33.9</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2.76</v>
-      </c>
-      <c r="H3" s="3">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="3">
-        <v>6</v>
-      </c>
-      <c r="P3" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" t="e">
-        <f>VLOOKUP(Q3,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T3" t="e">
-        <f>VLOOKUP(R3,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P4" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" t="e">
-        <f>VLOOKUP(Q4,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T4" t="e">
-        <f>VLOOKUP(R4,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="3">
-        <v>14.6525</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.71637621399999996</v>
-      </c>
-      <c r="E5" s="3">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3">
-        <v>14.0732</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.71637621399999996</v>
-      </c>
-      <c r="H5" s="3">
-        <v>12</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P5" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" t="e">
-        <f>VLOOKUP(Q5,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T5" t="e">
-        <f>VLOOKUP(R5,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="3">
-        <v>24.733333330000001</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4.550549417</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="L7">
+        <v>0.91439999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>71</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="F6" s="3">
-        <v>21.8</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3.9909272109999998</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="D8" s="3">
+        <v>67</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
         <v>4</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P6" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" t="e">
-        <f>VLOOKUP(Q6,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T6" t="e">
-        <f>VLOOKUP(R6,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="3">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.8096961069999999</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3">
-        <v>18.7</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2.3162469639999999</v>
-      </c>
-      <c r="H7" s="3">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P7" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S7" t="e">
-        <f>VLOOKUP(Q7,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T7">
-        <f>VLOOKUP(R7,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.91439999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="3">
-        <v>71</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>67</v>
       </c>
       <c r="G8" s="3">
         <v>2</v>
       </c>
       <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>0.60959999999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>107.75</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6.574889099</v>
+      </c>
+      <c r="C9" s="3">
         <v>4</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S8">
-        <f>VLOOKUP(Q8,Sheet2!$B$2:$Q$83,15,)</f>
+      <c r="D9" s="3">
+        <v>107</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.7879184510000004</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9">
         <v>0.60959999999999992</v>
       </c>
-      <c r="T8" t="e">
-        <f>VLOOKUP(R8,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="3">
-        <v>107.75</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6.574889099</v>
-      </c>
-      <c r="E9" s="3">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>125</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.209361307</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>103.5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8.6458082330000003</v>
+      </c>
+      <c r="F10" s="3">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>107</v>
-      </c>
-      <c r="G9" s="3">
-        <v>5.7879184510000004</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G10" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <v>0.60959999999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>148.6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10.77806414</v>
+      </c>
+      <c r="C11" s="3">
         <v>5</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P9" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S9">
-        <f>VLOOKUP(Q9,Sheet2!$B$2:$Q$83,15,)</f>
+      <c r="D11" s="3">
+        <v>332.6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>23.589404399999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11">
         <v>0.60959999999999992</v>
       </c>
-      <c r="T9" t="e">
-        <f>VLOOKUP(R9,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="3">
-        <v>125</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3.209361307</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>103.5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>8.6458082330000003</v>
-      </c>
-      <c r="H10" s="3">
-        <v>4</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P10" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S10">
-        <f>VLOOKUP(Q10,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.60959999999999992</v>
-      </c>
-      <c r="T10" t="e">
-        <f>VLOOKUP(R10,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="3">
-        <v>148.6</v>
-      </c>
-      <c r="D11" s="3">
-        <v>10.77806414</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>332.6</v>
-      </c>
-      <c r="G11" s="3">
-        <v>23.589404399999999</v>
-      </c>
-      <c r="H11" s="3">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P11" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S11">
-        <f>VLOOKUP(Q11,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.60959999999999992</v>
-      </c>
-      <c r="T11" t="e">
-        <f>VLOOKUP(R11,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>65</v>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2.3864666670000001</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.28468757300000003</v>
       </c>
       <c r="C12" s="3">
-        <v>2.3864666670000001</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3">
-        <v>0.28468757300000003</v>
+        <v>2.1649833329999999</v>
       </c>
       <c r="E12" s="3">
-        <v>6</v>
+        <v>0.51630346299999996</v>
       </c>
       <c r="F12" s="3">
-        <v>2.1649833329999999</v>
+        <v>6</v>
       </c>
       <c r="G12" s="3">
-        <v>0.51630346299999996</v>
+        <v>-9999</v>
       </c>
       <c r="H12" s="3">
-        <v>6</v>
+        <v>-9999</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.4572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>4.1565000000000003</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.38080000000000003</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4.6441999999999997</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.33189999999999997</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H13" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="K13">
+        <v>0.60959999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>5.1028000000000002</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3.1711999999999998</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.371</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.28310000000000002</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14">
+        <v>0.60959999999999992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>0.24732000000000001</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.7815828E-2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.52688000000000001</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.2462939999999998E-3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P12" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="S12">
-        <f>VLOOKUP(Q12,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="T12">
-        <f>VLOOKUP(R12,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.4572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4.1565000000000003</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.38080000000000003</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4.6441999999999997</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.33189999999999997</v>
-      </c>
-      <c r="H13" s="3">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="J15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.8966666670000001</v>
+      </c>
+      <c r="E16" s="3">
+        <v>9.2074849E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H16" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15.322900000000001</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.5005291079999998</v>
+      </c>
+      <c r="C17" s="3">
         <v>20</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P13" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S13">
-        <f>VLOOKUP(Q13,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.60959999999999992</v>
-      </c>
-      <c r="T13" t="e">
-        <f>VLOOKUP(R13,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="3">
-        <v>5.1028000000000002</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3.1711999999999998</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.371</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.28310000000000002</v>
-      </c>
-      <c r="H14" s="3">
-        <v>5</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="D17" s="3">
+        <v>14.791625</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.4774966599999999</v>
+      </c>
+      <c r="F17" s="3">
         <v>20</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P14" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S14">
-        <f>VLOOKUP(Q14,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.60959999999999992</v>
-      </c>
-      <c r="T14" t="e">
-        <f>VLOOKUP(R14,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.24732000000000001</v>
-      </c>
-      <c r="D15" s="3">
-        <v>5.7815828E-2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.52688000000000001</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2.2462939999999998E-3</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S15" t="e">
-        <f>VLOOKUP(Q15,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T15" t="e">
-        <f>VLOOKUP(R15,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.105</v>
-      </c>
-      <c r="D16" s="3">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1.8966666670000001</v>
-      </c>
-      <c r="G16" s="3">
-        <v>9.2074849E-2</v>
-      </c>
-      <c r="H16" s="3">
-        <v>3</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P16" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S16" t="e">
-        <f>VLOOKUP(Q16,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T16" t="e">
-        <f>VLOOKUP(R16,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="3">
-        <v>15.322900000000001</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2.5005291079999998</v>
-      </c>
-      <c r="E17" s="3">
-        <v>20</v>
-      </c>
-      <c r="F17" s="3">
-        <v>14.791625</v>
-      </c>
       <c r="G17" s="3">
-        <v>2.4774966599999999</v>
+        <v>-9999</v>
       </c>
       <c r="H17" s="3">
-        <v>20</v>
+        <v>-9999</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>20</v>
@@ -2299,1509 +1648,807 @@
       <c r="J17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="2" t="s">
+      <c r="K17">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="L17">
+        <v>0.4572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>70</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3">
+        <v>59</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18">
+        <v>0.60959999999999992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>6.9333333330000002</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.76978670500000002</v>
+      </c>
+      <c r="C19" s="3">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4.3333333329999997</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.151738497</v>
+      </c>
+      <c r="F19" s="3">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19">
+        <v>1.016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>0.33545999999999998</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.11947337420381306</v>
+      </c>
+      <c r="C20" s="3">
+        <v>40</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.45044000000000006</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.11030444938700602</v>
+      </c>
+      <c r="F20" s="3">
+        <v>40</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20">
+        <v>0.60959999999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.49193495500000001</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>24.6</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.93914855100000005</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>23.675000000000001</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.45757513044307818</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>23.524999999999999</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.44581386250317523</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H22" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18.274999999999999</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.35089172119045503</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3">
+        <v>18.274999999999999</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.44791182167922294</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>26.35</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.92195444572928864</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>26.2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.95524865872713982</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20.75</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.1715374513859984</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>20.799999999999997</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.99247166206396042</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H25" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1.822433333</v>
+      </c>
+      <c r="B26" s="3">
+        <v>9.7985968000000007E-2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2.3029666670000002</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.21154661999999999</v>
+      </c>
+      <c r="F26" s="3">
+        <v>7</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26">
+        <v>0.20319999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>14.82363333</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1.0998667689999999</v>
+      </c>
+      <c r="C27" s="3">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3">
+        <v>17.06303333</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.119307906</v>
+      </c>
+      <c r="F27" s="3">
+        <v>7</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27">
+        <v>0.20319999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>1.1827499999999997</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.11723000000000006</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.30385</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1.3874799999999998</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4</v>
+      </c>
+      <c r="G28" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H28" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>40.444999999999993</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1.4147151192907399</v>
+      </c>
+      <c r="C29" s="3">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3">
+        <v>82.3</v>
+      </c>
+      <c r="E29" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29">
+        <v>0.30479999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>78.912499999999994</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.60340129200016768</v>
+      </c>
+      <c r="C30" s="3">
+        <v>36</v>
+      </c>
+      <c r="D30" s="3">
+        <v>93.7</v>
+      </c>
+      <c r="E30" s="3">
+        <v>19.3</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5</v>
+      </c>
+      <c r="G30" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H30" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30">
+        <v>0.30479999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>42.149299999999997</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1.9812000000000012</v>
+      </c>
+      <c r="C31" s="3">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3">
+        <v>58.252600000000001</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1.9810999999999979</v>
+      </c>
+      <c r="F31" s="3">
+        <v>30</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31">
+        <v>5.0799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>22.76</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4</v>
+      </c>
+      <c r="D32" s="3">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>4.1698851851851844</v>
+      </c>
+      <c r="B33" s="3">
+        <v>8.6585937313552228E-2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>15</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4.3894018518518507</v>
+      </c>
+      <c r="E33" s="3">
+        <v>8.8026303315803384E-2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>15</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>3.9265537037037039</v>
+      </c>
+      <c r="B34" s="3">
+        <v>9.2300610148280463E-2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>15</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3.8187870370370378</v>
+      </c>
+      <c r="E34" s="3">
+        <v>9.4608341067732915E-2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>15</v>
+      </c>
+      <c r="G34" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H34" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>35.640550000000005</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.11936050016651238</v>
+      </c>
+      <c r="C35" s="3">
+        <v>15</v>
+      </c>
+      <c r="D35" s="3">
+        <v>36.173500000000004</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9.2391650095706199E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3">
+        <v>15</v>
+      </c>
+      <c r="H35" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P17" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="S17">
-        <f>VLOOKUP(Q17,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="T17">
-        <f>VLOOKUP(R17,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.4572</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="J35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35">
+        <v>0.30479999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>36.015199999999993</v>
+      </c>
+      <c r="B36" s="3">
+        <v>9.7142356764584298E-2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>15</v>
+      </c>
+      <c r="D36" s="3">
+        <v>41.298450000000003</v>
+      </c>
+      <c r="E36" s="3">
+        <v>9.1163041812966014E-2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>15</v>
+      </c>
+      <c r="G36" s="3">
+        <v>15</v>
+      </c>
+      <c r="H36" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36">
+        <v>0.30479999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>3.9756</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.24420000000000019</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3">
+        <v>6.6349999999999998</v>
+      </c>
+      <c r="E37" s="3">
+        <v>7.3133999999999997</v>
+      </c>
+      <c r="F37" s="3">
+        <v>4</v>
+      </c>
+      <c r="G37" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H37" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37">
+        <v>0.35559999999999997</v>
+      </c>
+      <c r="L37">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33.929850000000002</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.78742388172586475</v>
+      </c>
+      <c r="C38" s="3">
+        <v>6</v>
+      </c>
+      <c r="D38" s="3">
+        <v>38.238</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.81766790483452312</v>
+      </c>
+      <c r="F38" s="3">
+        <v>6</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38">
+        <v>0.30479999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>9.16</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="C39" s="3">
+        <v>3</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4.32</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.6915</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5</v>
+      </c>
+      <c r="G39" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="H39" s="3">
+        <v>-9999</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="3">
-        <v>70</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3">
-        <v>59</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3">
-        <v>10</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S18">
-        <f>VLOOKUP(Q18,Sheet2!$B$2:$Q$83,15,)</f>
+      <c r="L39">
         <v>0.60959999999999992</v>
       </c>
-      <c r="T18" t="e">
-        <f>VLOOKUP(R18,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="3">
-        <v>6.9333333330000002</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.76978670500000002</v>
-      </c>
-      <c r="E19" s="3">
-        <v>7</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4.3333333329999997</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.151738497</v>
-      </c>
-      <c r="H19" s="3">
-        <v>7</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1</v>
-      </c>
-      <c r="P19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S19">
-        <f>VLOOKUP(Q19,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>1.016</v>
-      </c>
-      <c r="T19" t="e">
-        <f>VLOOKUP(R19,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.33545999999999998</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.11947337420381306</v>
-      </c>
-      <c r="E20" s="3">
-        <v>40</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.45044000000000006</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.11030444938700602</v>
-      </c>
-      <c r="H20" s="3">
-        <v>40</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="S20">
-        <f>VLOOKUP(Q20,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.60959999999999992</v>
-      </c>
-      <c r="T20" t="e">
-        <f>VLOOKUP(R20,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="3">
-        <v>25.3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.49193495500000001</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>24.6</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.93914855100000005</v>
-      </c>
-      <c r="H21" s="3">
-        <v>5</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="S21" t="e">
-        <f>VLOOKUP(Q21,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T21" t="e">
-        <f>VLOOKUP(R21,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="3">
-        <v>23.675000000000001</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.45757513044307818</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>23.524999999999999</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.44581386250317523</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P22" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="S22">
-        <f>VLOOKUP(Q22,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.254</v>
-      </c>
-      <c r="T22" t="e">
-        <f>VLOOKUP(R22,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="3">
-        <v>18.274999999999999</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.35089172119045503</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>18.274999999999999</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.44791182167922294</v>
-      </c>
-      <c r="H23" s="3">
-        <v>5</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="S23">
-        <f>VLOOKUP(Q23,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.254</v>
-      </c>
-      <c r="T23" t="e">
-        <f>VLOOKUP(R23,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="3">
-        <v>26.35</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.92195444572928864</v>
-      </c>
-      <c r="E24" s="3">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>26.2</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.95524865872713982</v>
-      </c>
-      <c r="H24" s="3">
-        <v>5</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="S24">
-        <f>VLOOKUP(Q24,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.254</v>
-      </c>
-      <c r="T24" t="e">
-        <f>VLOOKUP(R24,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="3">
-        <v>20.75</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1.1715374513859984</v>
-      </c>
-      <c r="E25" s="3">
-        <v>5</v>
-      </c>
-      <c r="F25" s="3">
-        <v>20.799999999999997</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.99247166206396042</v>
-      </c>
-      <c r="H25" s="3">
-        <v>5</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P25" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="S25">
-        <f>VLOOKUP(Q25,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.254</v>
-      </c>
-      <c r="T25" t="e">
-        <f>VLOOKUP(R25,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1.822433333</v>
-      </c>
-      <c r="D26" s="3">
-        <v>9.7985968000000007E-2</v>
-      </c>
-      <c r="E26" s="3">
-        <v>7</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2.3029666670000002</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0.21154661999999999</v>
-      </c>
-      <c r="H26" s="3">
-        <v>7</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S26">
-        <f>VLOOKUP(Q26,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.20319999999999999</v>
-      </c>
-      <c r="T26" t="e">
-        <f>VLOOKUP(R26,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="3">
-        <v>14.82363333</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1.0998667689999999</v>
-      </c>
-      <c r="E27" s="3">
-        <v>7</v>
-      </c>
-      <c r="F27" s="3">
-        <v>17.06303333</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1.119307906</v>
-      </c>
-      <c r="H27" s="3">
-        <v>7</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S27">
-        <f>VLOOKUP(Q27,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.20319999999999999</v>
-      </c>
-      <c r="T27" t="e">
-        <f>VLOOKUP(R27,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1.1827499999999997</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0.11723000000000006</v>
-      </c>
-      <c r="E28" s="3">
-        <v>4</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1.30385</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1.3874799999999998</v>
-      </c>
-      <c r="H28" s="3">
-        <v>4</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P28" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S28" t="e">
-        <f>VLOOKUP(Q28,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T28">
-        <f>VLOOKUP(R28,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.254</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="3">
-        <v>40.444999999999993</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1.4147151192907399</v>
-      </c>
-      <c r="E29" s="3">
-        <v>18</v>
-      </c>
-      <c r="F29" s="3">
-        <v>82.3</v>
-      </c>
-      <c r="G29" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="H29" s="3">
-        <v>5</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P29" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="S29" t="e">
-        <f>VLOOKUP(Q29,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T29">
-        <f>VLOOKUP(R29,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.30479999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="3">
-        <v>78.912499999999994</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0.60340129200016768</v>
-      </c>
-      <c r="E30" s="3">
-        <v>36</v>
-      </c>
-      <c r="F30" s="3">
-        <v>93.7</v>
-      </c>
-      <c r="G30" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="H30" s="3">
-        <v>5</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O30" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P30" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="S30" t="e">
-        <f>VLOOKUP(Q30,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T30">
-        <f>VLOOKUP(R30,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.30479999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="3">
-        <v>42.149299999999997</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1.9812000000000012</v>
-      </c>
-      <c r="E31" s="3">
-        <v>30</v>
-      </c>
-      <c r="F31" s="3">
-        <v>58.252600000000001</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1.9810999999999979</v>
-      </c>
-      <c r="H31" s="3">
-        <v>30</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O31" s="3">
-        <v>3</v>
-      </c>
-      <c r="P31" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="S31">
-        <f>VLOOKUP(Q31,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>5.0799999999999998E-2</v>
-      </c>
-      <c r="T31" t="e">
-        <f>VLOOKUP(R31,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="3">
-        <v>22.76</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>18.350000000000001</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="H32" s="3">
-        <v>4</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="S32" t="e">
-        <f>VLOOKUP(Q32,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T32" t="e">
-        <f>VLOOKUP(R32,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="3">
-        <v>4.1698851851851844</v>
-      </c>
-      <c r="D33" s="3">
-        <v>8.6585937313552228E-2</v>
-      </c>
-      <c r="E33" s="3">
-        <v>15</v>
-      </c>
-      <c r="F33" s="3">
-        <v>4.3894018518518507</v>
-      </c>
-      <c r="G33" s="3">
-        <v>8.8026303315803384E-2</v>
-      </c>
-      <c r="H33" s="3">
-        <v>15</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="S33" t="e">
-        <f>VLOOKUP(Q33,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T33" t="e">
-        <f>VLOOKUP(R33,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="3">
-        <v>3.9265537037037039</v>
-      </c>
-      <c r="D34" s="3">
-        <v>9.2300610148280463E-2</v>
-      </c>
-      <c r="E34" s="3">
-        <v>15</v>
-      </c>
-      <c r="F34" s="3">
-        <v>3.8187870370370378</v>
-      </c>
-      <c r="G34" s="3">
-        <v>9.4608341067732915E-2</v>
-      </c>
-      <c r="H34" s="3">
-        <v>15</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P34" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="S34" t="e">
-        <f>VLOOKUP(Q34,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T34" t="e">
-        <f>VLOOKUP(R34,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="3">
-        <v>35.640550000000005</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0.11936050016651238</v>
-      </c>
-      <c r="E35" s="3">
-        <v>15</v>
-      </c>
-      <c r="F35" s="3">
-        <v>36.173500000000004</v>
-      </c>
-      <c r="G35" s="3">
-        <v>9.2391650095706199E-2</v>
-      </c>
-      <c r="H35" s="3">
-        <v>15</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" s="3">
-        <v>15</v>
-      </c>
-      <c r="P35" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S35" t="e">
-        <f>VLOOKUP(Q35,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T35">
-        <f>VLOOKUP(R35,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.30479999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="3">
-        <v>36.015199999999993</v>
-      </c>
-      <c r="D36" s="3">
-        <v>9.7142356764584298E-2</v>
-      </c>
-      <c r="E36" s="3">
-        <v>15</v>
-      </c>
-      <c r="F36" s="3">
-        <v>41.298450000000003</v>
-      </c>
-      <c r="G36" s="3">
-        <v>9.1163041812966014E-2</v>
-      </c>
-      <c r="H36" s="3">
-        <v>15</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O36" s="3">
-        <v>15</v>
-      </c>
-      <c r="P36" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S36" t="e">
-        <f>VLOOKUP(Q36,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T36">
-        <f>VLOOKUP(R36,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.30479999999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="3">
-        <v>3.9756</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0.24420000000000019</v>
-      </c>
-      <c r="E37" s="3">
-        <v>4</v>
-      </c>
-      <c r="F37" s="3">
-        <v>6.6349999999999998</v>
-      </c>
-      <c r="G37" s="3">
-        <v>7.3133999999999997</v>
-      </c>
-      <c r="H37" s="3">
-        <v>4</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O37" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P37" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="S37">
-        <f>VLOOKUP(Q37,Sheet2!$B$2:$Q$83,15,)</f>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>9.32</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="C40" s="3">
+        <v>24</v>
+      </c>
+      <c r="D40" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="F40" s="3">
+        <v>24</v>
+      </c>
+      <c r="G40" s="3">
+        <v>5.56</v>
+      </c>
+      <c r="H40" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40">
         <v>0.35559999999999997</v>
-      </c>
-      <c r="T37">
-        <f>VLOOKUP(R37,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.254</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="3">
-        <v>33.929850000000002</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0.78742388172586475</v>
-      </c>
-      <c r="E38" s="3">
-        <v>6</v>
-      </c>
-      <c r="F38" s="3">
-        <v>38.238</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0.81766790483452312</v>
-      </c>
-      <c r="H38" s="3">
-        <v>6</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O38" s="3">
-        <v>1</v>
-      </c>
-      <c r="P38" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S38" t="e">
-        <f>VLOOKUP(Q38,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T38">
-        <f>VLOOKUP(R38,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.30479999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="3">
-        <v>9.16</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="E39" s="3">
-        <v>3</v>
-      </c>
-      <c r="F39" s="3">
-        <v>4.32</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0.6915</v>
-      </c>
-      <c r="H39" s="3">
-        <v>5</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O39" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="P39" s="3">
-        <v>-9999</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="S39" t="e">
-        <f>VLOOKUP(Q39,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T39">
-        <f>VLOOKUP(R39,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.60959999999999992</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="3">
-        <v>9.32</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0.73</v>
-      </c>
-      <c r="E40" s="3">
-        <v>24</v>
-      </c>
-      <c r="F40" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0.54</v>
-      </c>
-      <c r="H40" s="3">
-        <v>24</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O40" s="3">
-        <v>5.56</v>
-      </c>
-      <c r="P40" s="3">
-        <v>4.08</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="S40">
-        <f>VLOOKUP(Q40,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>0.35559999999999997</v>
-      </c>
-      <c r="T40" t="e">
-        <f>VLOOKUP(R40,Sheet2!$B$2:$Q$83,15,)</f>
-        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -3821,63 +2468,63 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="I1" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="K1" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="L1" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="M1" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="N1" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="O1" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="P1" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="Q1" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="C2">
         <v>166201</v>
@@ -3886,48 +2533,48 @@
         <v>1718113</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H2">
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="J2">
         <v>0.75</v>
       </c>
       <c r="L2" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="M2" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="N2">
         <v>0.75</v>
       </c>
       <c r="O2" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="P2">
         <v>0.75</v>
       </c>
       <c r="Q2" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>166216</v>
@@ -3936,48 +2583,48 @@
         <v>1718188</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F3">
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H3">
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="J3">
         <v>0.37</v>
       </c>
       <c r="L3" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>0.37</v>
       </c>
       <c r="O3" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="P3">
         <v>0.37</v>
       </c>
       <c r="Q3" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>941264</v>
@@ -3986,48 +2633,48 @@
         <v>5619268</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F4">
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H4">
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="J4">
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="N4">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="P4">
         <v>0.04</v>
       </c>
       <c r="Q4" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>941303</v>
@@ -4036,25 +2683,25 @@
         <v>5621182</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H5">
         <v>1323</v>
       </c>
       <c r="I5" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J5">
         <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N5">
         <v>18</v>
@@ -4066,10 +2713,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>941307</v>
@@ -4078,25 +2725,25 @@
         <v>5621510</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H6">
         <v>1323</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J6">
         <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>24</v>
@@ -4108,10 +2755,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>941322</v>
@@ -4120,25 +2767,25 @@
         <v>5622753</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H7">
         <v>1323</v>
       </c>
       <c r="I7" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J7">
         <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>30</v>
@@ -4150,10 +2797,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="C8">
         <v>941323</v>
@@ -4162,25 +2809,25 @@
         <v>5622836</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H8">
         <v>1323</v>
       </c>
       <c r="I8" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J8">
         <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>32</v>
@@ -4192,10 +2839,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="C9">
         <v>941324</v>
@@ -4204,25 +2851,25 @@
         <v>5622920</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H9">
         <v>1323</v>
       </c>
       <c r="I9" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J9">
         <v>40</v>
       </c>
       <c r="L9" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N9">
         <v>40</v>
@@ -4234,10 +2881,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <v>941326</v>
@@ -4246,25 +2893,25 @@
         <v>5623088</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F10">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H10">
         <v>1323</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J10">
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>8</v>
@@ -4276,10 +2923,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>941327</v>
@@ -4288,25 +2935,25 @@
         <v>5623172</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H11">
         <v>1323</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J11">
         <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N11">
         <v>8</v>
@@ -4318,10 +2965,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>941358</v>
@@ -4330,25 +2977,25 @@
         <v>5625723</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H12">
         <v>1323</v>
       </c>
       <c r="I12" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J12">
         <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N12">
         <v>18</v>
@@ -4360,10 +3007,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="C13">
         <v>941363</v>
@@ -4372,25 +3019,25 @@
         <v>5626139</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H13">
         <v>1323</v>
       </c>
       <c r="I13" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J13">
         <v>10</v>
       </c>
       <c r="L13" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N13">
         <v>10</v>
@@ -4402,10 +3049,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>941370</v>
@@ -4414,25 +3061,25 @@
         <v>5626721</v>
       </c>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H14">
         <v>1323</v>
       </c>
       <c r="I14" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J14">
         <v>12</v>
       </c>
       <c r="L14" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N14">
         <v>12</v>
@@ -4444,10 +3091,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="C15">
         <v>941371</v>
@@ -4456,25 +3103,25 @@
         <v>5626804</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H15">
         <v>1323</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J15">
         <v>30</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N15">
         <v>30</v>
@@ -4486,10 +3133,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="C16">
         <v>941415</v>
@@ -4498,25 +3145,25 @@
         <v>5630450</v>
       </c>
       <c r="E16" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F16">
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H16">
         <v>1323</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J16">
         <v>20</v>
       </c>
       <c r="L16" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N16">
         <v>20</v>
@@ -4528,10 +3175,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="C17">
         <v>941427</v>
@@ -4540,25 +3187,25 @@
         <v>5631443</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F17">
         <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H17">
         <v>1323</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J17">
         <v>20</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N17">
         <v>20</v>
@@ -4570,10 +3217,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <v>941488</v>
@@ -4582,25 +3229,25 @@
         <v>5636405</v>
       </c>
       <c r="E18" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F18">
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H18">
         <v>1323</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J18">
         <v>14</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N18">
         <v>14</v>
@@ -4612,10 +3259,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>941498</v>
@@ -4624,25 +3271,25 @@
         <v>5637212</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F19">
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H19">
         <v>1323</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J19">
         <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N19">
         <v>20</v>
@@ -4654,10 +3301,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>941499</v>
@@ -4666,25 +3313,25 @@
         <v>5637297</v>
       </c>
       <c r="E20" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F20">
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H20">
         <v>1323</v>
       </c>
       <c r="I20" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J20">
         <v>16</v>
       </c>
       <c r="L20" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N20">
         <v>16</v>
@@ -4696,10 +3343,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>941500</v>
@@ -4708,25 +3355,25 @@
         <v>5637380</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F21">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H21">
         <v>1323</v>
       </c>
       <c r="I21" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J21">
         <v>16</v>
       </c>
       <c r="L21" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N21">
         <v>16</v>
@@ -4738,10 +3385,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>941501</v>
@@ -4750,25 +3397,25 @@
         <v>5637463</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F22">
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H22">
         <v>1323</v>
       </c>
       <c r="I22" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J22">
         <v>20</v>
       </c>
       <c r="L22" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N22">
         <v>20</v>
@@ -4780,10 +3427,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="C23">
         <v>941523</v>
@@ -4792,25 +3439,25 @@
         <v>5639278</v>
       </c>
       <c r="E23" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F23">
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H23">
         <v>1323</v>
       </c>
       <c r="I23" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J23">
         <v>10</v>
       </c>
       <c r="L23" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N23">
         <v>10</v>
@@ -4822,10 +3469,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>941530</v>
@@ -4834,25 +3481,25 @@
         <v>5639868</v>
       </c>
       <c r="E24" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F24">
         <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H24">
         <v>1323</v>
       </c>
       <c r="I24" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J24">
         <v>8</v>
       </c>
       <c r="L24" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N24">
         <v>8</v>
@@ -4864,10 +3511,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="C25">
         <v>941558</v>
@@ -4876,25 +3523,25 @@
         <v>5642142</v>
       </c>
       <c r="E25" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F25">
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H25">
         <v>1323</v>
       </c>
       <c r="I25" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J25">
         <v>18</v>
       </c>
       <c r="L25" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N25">
         <v>18</v>
@@ -4906,10 +3553,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="C26">
         <v>941567</v>
@@ -4918,25 +3565,25 @@
         <v>5642882</v>
       </c>
       <c r="E26" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F26">
         <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H26">
         <v>1323</v>
       </c>
       <c r="I26" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J26">
         <v>24</v>
       </c>
       <c r="L26" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N26">
         <v>24</v>
@@ -4948,10 +3595,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="C27">
         <v>941585</v>
@@ -4960,25 +3607,25 @@
         <v>5644358</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F27">
         <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H27">
         <v>1323</v>
       </c>
       <c r="I27" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J27">
         <v>18</v>
       </c>
       <c r="L27" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N27">
         <v>18</v>
@@ -4990,10 +3637,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="C28">
         <v>941612</v>
@@ -5002,25 +3649,25 @@
         <v>5646547</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F28">
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H28">
         <v>1323</v>
       </c>
       <c r="I28" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J28">
         <v>12</v>
       </c>
       <c r="L28" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N28">
         <v>12</v>
@@ -5032,10 +3679,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="C29">
         <v>941719</v>
@@ -5044,25 +3691,25 @@
         <v>5655227</v>
       </c>
       <c r="E29" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F29">
         <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H29">
         <v>1323</v>
       </c>
       <c r="I29" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J29">
         <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N29">
         <v>16</v>
@@ -5074,10 +3721,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="C30">
         <v>941905</v>
@@ -5086,25 +3733,25 @@
         <v>5670425</v>
       </c>
       <c r="E30" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F30">
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H30">
         <v>1323</v>
       </c>
       <c r="I30" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J30">
         <v>14</v>
       </c>
       <c r="L30" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N30">
         <v>14</v>
@@ -5116,10 +3763,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="C31">
         <v>941957</v>
@@ -5128,25 +3775,25 @@
         <v>5674611</v>
       </c>
       <c r="E31" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F31">
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H31">
         <v>1323</v>
       </c>
       <c r="I31" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J31">
         <v>16</v>
       </c>
       <c r="L31" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N31">
         <v>16</v>
@@ -5158,10 +3805,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="C32">
         <v>941959</v>
@@ -5170,25 +3817,25 @@
         <v>5674774</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F32">
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H32">
         <v>1323</v>
       </c>
       <c r="I32" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J32">
         <v>12</v>
       </c>
       <c r="L32" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N32">
         <v>12</v>
@@ -5200,10 +3847,10 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="C33">
         <v>941970</v>
@@ -5212,25 +3859,25 @@
         <v>5675682</v>
       </c>
       <c r="E33" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F33">
         <v>6</v>
       </c>
       <c r="G33" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H33">
         <v>1323</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J33">
         <v>10</v>
       </c>
       <c r="L33" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N33">
         <v>10</v>
@@ -5242,10 +3889,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>942005</v>
@@ -5254,25 +3901,25 @@
         <v>5678543</v>
       </c>
       <c r="E34" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F34">
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H34">
         <v>1323</v>
       </c>
       <c r="I34" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J34">
         <v>2</v>
       </c>
       <c r="L34" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -5284,10 +3931,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="C35">
         <v>942025</v>
@@ -5296,25 +3943,25 @@
         <v>5680172</v>
       </c>
       <c r="E35" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F35">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H35">
         <v>1323</v>
       </c>
       <c r="I35" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J35">
         <v>16</v>
       </c>
       <c r="L35" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N35">
         <v>16</v>
@@ -5326,10 +3973,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>942028</v>
@@ -5338,25 +3985,25 @@
         <v>5680429</v>
       </c>
       <c r="E36" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F36">
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H36">
         <v>1323</v>
       </c>
       <c r="I36" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J36">
         <v>18</v>
       </c>
       <c r="L36" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N36">
         <v>18</v>
@@ -5368,10 +4015,10 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="C37">
         <v>942035</v>
@@ -5380,25 +4027,25 @@
         <v>5680994</v>
       </c>
       <c r="E37" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F37">
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H37">
         <v>1323</v>
       </c>
       <c r="I37" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J37">
         <v>14</v>
       </c>
       <c r="L37" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N37">
         <v>14</v>
@@ -5410,10 +4057,10 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="C38">
         <v>942070</v>
@@ -5422,25 +4069,25 @@
         <v>5683823</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F38">
         <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H38">
         <v>1323</v>
       </c>
       <c r="I38" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J38">
         <v>10</v>
       </c>
       <c r="L38" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N38">
         <v>10</v>
@@ -5452,10 +4099,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="C39">
         <v>942140</v>
@@ -5464,25 +4111,25 @@
         <v>5689551</v>
       </c>
       <c r="E39" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F39">
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H39">
         <v>1323</v>
       </c>
       <c r="I39" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J39">
         <v>14</v>
       </c>
       <c r="L39" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N39">
         <v>14</v>
@@ -5494,10 +4141,10 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>942142</v>
@@ -5506,25 +4153,25 @@
         <v>5689716</v>
       </c>
       <c r="E40" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F40">
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H40">
         <v>1323</v>
       </c>
       <c r="I40" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J40">
         <v>14</v>
       </c>
       <c r="L40" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N40">
         <v>14</v>
@@ -5536,10 +4183,10 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="C41">
         <v>942144</v>
@@ -5548,25 +4195,25 @@
         <v>5689880</v>
       </c>
       <c r="E41" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F41">
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H41">
         <v>1323</v>
       </c>
       <c r="I41" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J41">
         <v>10</v>
       </c>
       <c r="L41" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N41">
         <v>10</v>
@@ -5578,10 +4225,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="C42">
         <v>942257</v>
@@ -5590,25 +4237,25 @@
         <v>5699034</v>
       </c>
       <c r="E42" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F42">
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H42">
         <v>1323</v>
       </c>
       <c r="I42" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J42">
         <v>10</v>
       </c>
       <c r="L42" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N42">
         <v>10</v>
@@ -5620,10 +4267,10 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="C43">
         <v>942387</v>
@@ -5632,25 +4279,25 @@
         <v>5709698</v>
       </c>
       <c r="E43" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F43">
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H43">
         <v>1323</v>
       </c>
       <c r="I43" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J43">
         <v>12</v>
       </c>
       <c r="L43" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N43">
         <v>12</v>
@@ -5662,10 +4309,10 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="C44">
         <v>942455</v>
@@ -5674,25 +4321,25 @@
         <v>5715293</v>
       </c>
       <c r="E44" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F44">
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H44">
         <v>1323</v>
       </c>
       <c r="I44" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J44">
         <v>14</v>
       </c>
       <c r="L44" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N44">
         <v>14</v>
@@ -5704,10 +4351,10 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="C45">
         <v>942475</v>
@@ -5716,25 +4363,25 @@
         <v>5716915</v>
       </c>
       <c r="E45" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F45">
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H45">
         <v>1323</v>
       </c>
       <c r="I45" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J45">
         <v>16</v>
       </c>
       <c r="L45" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N45">
         <v>16</v>
@@ -5746,10 +4393,10 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="B46" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="C46">
         <v>942501</v>
@@ -5758,25 +4405,25 @@
         <v>5719065</v>
       </c>
       <c r="E46" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F46">
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H46">
         <v>1323</v>
       </c>
       <c r="I46" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J46">
         <v>10</v>
       </c>
       <c r="L46" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N46">
         <v>10</v>
@@ -5788,10 +4435,10 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C47">
         <v>942570</v>
@@ -5800,25 +4447,25 @@
         <v>5724703</v>
       </c>
       <c r="E47" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F47">
         <v>6</v>
       </c>
       <c r="G47" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H47">
         <v>1323</v>
       </c>
       <c r="I47" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J47">
         <v>24</v>
       </c>
       <c r="L47" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N47">
         <v>24</v>
@@ -5830,10 +4477,10 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="C48">
         <v>942576</v>
@@ -5842,25 +4489,25 @@
         <v>5725197</v>
       </c>
       <c r="E48" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F48">
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H48">
         <v>1323</v>
       </c>
       <c r="I48" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J48">
         <v>12</v>
       </c>
       <c r="L48" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N48">
         <v>12</v>
@@ -5872,10 +4519,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="B49" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="C49">
         <v>942582</v>
@@ -5884,25 +4531,25 @@
         <v>5725694</v>
       </c>
       <c r="E49" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F49">
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H49">
         <v>1323</v>
       </c>
       <c r="I49" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J49">
         <v>4</v>
       </c>
       <c r="L49" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N49">
         <v>4</v>
@@ -5914,10 +4561,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="C50">
         <v>942583</v>
@@ -5926,25 +4573,25 @@
         <v>5725777</v>
       </c>
       <c r="E50" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F50">
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H50">
         <v>1323</v>
       </c>
       <c r="I50" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J50">
         <v>16</v>
       </c>
       <c r="L50" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N50">
         <v>16</v>
@@ -5956,10 +4603,10 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="C51">
         <v>942670</v>
@@ -5968,25 +4615,25 @@
         <v>5732778</v>
       </c>
       <c r="E51" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F51">
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H51">
         <v>1323</v>
       </c>
       <c r="I51" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J51">
         <v>10</v>
       </c>
       <c r="L51" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N51">
         <v>10</v>
@@ -5998,10 +4645,10 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="B52" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="C52">
         <v>942716</v>
@@ -6010,25 +4657,25 @@
         <v>5736541</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F52">
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H52">
         <v>1323</v>
       </c>
       <c r="I52" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J52">
         <v>12</v>
       </c>
       <c r="L52" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N52">
         <v>12</v>
@@ -6040,10 +4687,10 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="C53">
         <v>942748</v>
@@ -6052,25 +4699,25 @@
         <v>5739140</v>
       </c>
       <c r="E53" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F53">
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H53">
         <v>1323</v>
       </c>
       <c r="I53" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J53">
         <v>10</v>
       </c>
       <c r="L53" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N53">
         <v>10</v>
@@ -6082,10 +4729,10 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C54">
         <v>942750</v>
@@ -6094,25 +4741,25 @@
         <v>5739305</v>
       </c>
       <c r="E54" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F54">
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H54">
         <v>1323</v>
       </c>
       <c r="I54" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J54">
         <v>14</v>
       </c>
       <c r="L54" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N54">
         <v>14</v>
@@ -6124,10 +4771,10 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="C55">
         <v>942765</v>
@@ -6136,25 +4783,25 @@
         <v>5740533</v>
       </c>
       <c r="E55" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F55">
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H55">
         <v>1323</v>
       </c>
       <c r="I55" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J55">
         <v>20</v>
       </c>
       <c r="L55" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N55">
         <v>20</v>
@@ -6166,10 +4813,10 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="C56">
         <v>942795</v>
@@ -6178,25 +4825,25 @@
         <v>5742998</v>
       </c>
       <c r="E56" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F56">
         <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H56">
         <v>1323</v>
       </c>
       <c r="I56" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J56">
         <v>40</v>
       </c>
       <c r="L56" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N56">
         <v>40</v>
@@ -6208,10 +4855,10 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="B57" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="C57">
         <v>942808</v>
@@ -6220,25 +4867,25 @@
         <v>5744071</v>
       </c>
       <c r="E57" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F57">
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H57">
         <v>1323</v>
       </c>
       <c r="I57" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J57">
         <v>30</v>
       </c>
       <c r="L57" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N57">
         <v>30</v>
@@ -6250,10 +4897,10 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="B58" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="C58">
         <v>942815</v>
@@ -6262,25 +4909,25 @@
         <v>5744655</v>
       </c>
       <c r="E58" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F58">
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H58">
         <v>1323</v>
       </c>
       <c r="I58" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J58">
         <v>35</v>
       </c>
       <c r="L58" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N58">
         <v>35</v>
@@ -6292,10 +4939,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C59">
         <v>942853</v>
@@ -6304,25 +4951,25 @@
         <v>5747686</v>
       </c>
       <c r="E59" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F59">
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H59">
         <v>1323</v>
       </c>
       <c r="I59" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J59">
         <v>10</v>
       </c>
       <c r="L59" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N59">
         <v>10</v>
@@ -6334,10 +4981,10 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C60">
         <v>942880</v>
@@ -6346,25 +4993,25 @@
         <v>5749855</v>
       </c>
       <c r="E60" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F60">
         <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H60">
         <v>1323</v>
       </c>
       <c r="I60" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J60">
         <v>24</v>
       </c>
       <c r="L60" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N60">
         <v>24</v>
@@ -6376,10 +5023,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C61">
         <v>942881</v>
@@ -6388,25 +5035,25 @@
         <v>5749939</v>
       </c>
       <c r="E61" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F61">
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H61">
         <v>1323</v>
       </c>
       <c r="I61" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J61">
         <v>24</v>
       </c>
       <c r="L61" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N61">
         <v>24</v>
@@ -6418,10 +5065,10 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="C62">
         <v>942882</v>
@@ -6430,25 +5077,25 @@
         <v>5750023</v>
       </c>
       <c r="E62" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F62">
         <v>6</v>
       </c>
       <c r="G62" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H62">
         <v>1323</v>
       </c>
       <c r="I62" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J62">
         <v>32</v>
       </c>
       <c r="L62" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N62">
         <v>32</v>
@@ -6460,10 +5107,10 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C63">
         <v>942923</v>
@@ -6472,25 +5119,25 @@
         <v>5753307</v>
       </c>
       <c r="E63" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F63">
         <v>6</v>
       </c>
       <c r="G63" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H63">
         <v>1323</v>
       </c>
       <c r="I63" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J63">
         <v>36</v>
       </c>
       <c r="L63" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N63">
         <v>36</v>
@@ -6502,10 +5149,10 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C64">
         <v>942924</v>
@@ -6514,25 +5161,25 @@
         <v>5753391</v>
       </c>
       <c r="E64" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F64">
         <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H64">
         <v>1323</v>
       </c>
       <c r="I64" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J64">
         <v>12</v>
       </c>
       <c r="L64" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N64">
         <v>12</v>
@@ -6544,10 +5191,10 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="B65" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="C65">
         <v>942953</v>
@@ -6556,25 +5203,25 @@
         <v>5755789</v>
       </c>
       <c r="E65" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F65">
         <v>6</v>
       </c>
       <c r="G65" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H65">
         <v>1323</v>
       </c>
       <c r="I65" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J65">
         <v>48</v>
       </c>
       <c r="L65" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N65">
         <v>48</v>
@@ -6586,10 +5233,10 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C66">
         <v>943041</v>
@@ -6598,25 +5245,25 @@
         <v>5763038</v>
       </c>
       <c r="E66" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F66">
         <v>6</v>
       </c>
       <c r="G66" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H66">
         <v>1323</v>
       </c>
       <c r="I66" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J66">
         <v>36</v>
       </c>
       <c r="L66" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N66">
         <v>36</v>
@@ -6628,10 +5275,10 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="B67" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="C67">
         <v>943054</v>
@@ -6640,25 +5287,25 @@
         <v>5764107</v>
       </c>
       <c r="E67" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F67">
         <v>6</v>
       </c>
       <c r="G67" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H67">
         <v>1323</v>
       </c>
       <c r="I67" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J67">
         <v>14</v>
       </c>
       <c r="L67" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N67">
         <v>14</v>
@@ -6670,10 +5317,10 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="C68">
         <v>943098</v>
@@ -6682,25 +5329,25 @@
         <v>5767725</v>
       </c>
       <c r="E68" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F68">
         <v>6</v>
       </c>
       <c r="G68" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H68">
         <v>1323</v>
       </c>
       <c r="I68" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J68">
         <v>18</v>
       </c>
       <c r="L68" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N68">
         <v>18</v>
@@ -6712,10 +5359,10 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>943168</v>
@@ -6724,25 +5371,25 @@
         <v>5773289</v>
       </c>
       <c r="E69" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F69">
         <v>6</v>
       </c>
       <c r="G69" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H69">
         <v>1323</v>
       </c>
       <c r="I69" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J69">
         <v>12</v>
       </c>
       <c r="L69" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N69">
         <v>12</v>
@@ -6754,10 +5401,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="C70">
         <v>943169</v>
@@ -6766,25 +5413,25 @@
         <v>5773372</v>
       </c>
       <c r="E70" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F70">
         <v>6</v>
       </c>
       <c r="G70" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H70">
         <v>1323</v>
       </c>
       <c r="I70" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J70">
         <v>14</v>
       </c>
       <c r="L70" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N70">
         <v>14</v>
@@ -6796,10 +5443,10 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="C71">
         <v>943170</v>
@@ -6808,25 +5455,25 @@
         <v>5773455</v>
       </c>
       <c r="E71" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F71">
         <v>6</v>
       </c>
       <c r="G71" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H71">
         <v>1323</v>
       </c>
       <c r="I71" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J71">
         <v>10</v>
       </c>
       <c r="L71" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N71">
         <v>10</v>
@@ -6838,10 +5485,10 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="B72" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="C72">
         <v>943224</v>
@@ -6850,25 +5497,25 @@
         <v>5777764</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F72">
         <v>6</v>
       </c>
       <c r="G72" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H72">
         <v>1323</v>
       </c>
       <c r="I72" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J72" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="L72" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="P72">
         <f t="shared" si="1"/>
@@ -6877,10 +5524,10 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="B73" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="C73">
         <v>943226</v>
@@ -6889,25 +5536,25 @@
         <v>5777933</v>
       </c>
       <c r="E73" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F73">
         <v>6</v>
       </c>
       <c r="G73" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H73">
         <v>1323</v>
       </c>
       <c r="I73" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J73">
         <v>12</v>
       </c>
       <c r="L73" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N73">
         <v>12</v>
@@ -6919,10 +5566,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C74">
         <v>943229</v>
@@ -6931,25 +5578,25 @@
         <v>5778182</v>
       </c>
       <c r="E74" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F74">
         <v>6</v>
       </c>
       <c r="G74" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H74">
         <v>1323</v>
       </c>
       <c r="I74" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J74">
         <v>16</v>
       </c>
       <c r="L74" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N74">
         <v>16</v>
@@ -6961,10 +5608,10 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="B75" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="C75">
         <v>943248</v>
@@ -6973,25 +5620,25 @@
         <v>5779752</v>
       </c>
       <c r="E75" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F75">
         <v>6</v>
       </c>
       <c r="G75" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H75">
         <v>1323</v>
       </c>
       <c r="I75" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J75">
         <v>10</v>
       </c>
       <c r="L75" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N75">
         <v>10</v>
@@ -7003,10 +5650,10 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="B76" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="C76">
         <v>943251</v>
@@ -7015,25 +5662,25 @@
         <v>5779999</v>
       </c>
       <c r="E76" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F76">
         <v>6</v>
       </c>
       <c r="G76" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H76">
         <v>1323</v>
       </c>
       <c r="I76" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J76">
         <v>12</v>
       </c>
       <c r="L76" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N76">
         <v>12</v>
@@ -7045,10 +5692,10 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="C77">
         <v>943255</v>
@@ -7057,25 +5704,25 @@
         <v>5780335</v>
       </c>
       <c r="E77" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F77">
         <v>6</v>
       </c>
       <c r="G77" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H77">
         <v>1323</v>
       </c>
       <c r="I77" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J77">
         <v>10</v>
       </c>
       <c r="L77" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N77">
         <v>10</v>
@@ -7087,10 +5734,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="B78" t="s">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="C78">
         <v>943259</v>
@@ -7099,25 +5746,25 @@
         <v>5780668</v>
       </c>
       <c r="E78" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F78">
         <v>6</v>
       </c>
       <c r="G78" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H78">
         <v>1323</v>
       </c>
       <c r="I78" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J78">
         <v>6</v>
       </c>
       <c r="L78" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N78">
         <v>6</v>
@@ -7129,10 +5776,10 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="B79" t="s">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="C79">
         <v>943282</v>
@@ -7141,25 +5788,25 @@
         <v>5782554</v>
       </c>
       <c r="E79" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F79">
         <v>6</v>
       </c>
       <c r="G79" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H79">
         <v>1323</v>
       </c>
       <c r="I79" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J79">
         <v>10</v>
       </c>
       <c r="L79" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N79">
         <v>10</v>
@@ -7171,10 +5818,10 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="B80" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="C80">
         <v>943323</v>
@@ -7183,25 +5830,25 @@
         <v>5785870</v>
       </c>
       <c r="E80" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F80">
         <v>6</v>
       </c>
       <c r="G80" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H80">
         <v>1323</v>
       </c>
       <c r="I80" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J80">
         <v>6</v>
       </c>
       <c r="L80" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N80">
         <v>6</v>
@@ -7213,10 +5860,10 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="C81">
         <v>943325</v>
@@ -7225,25 +5872,25 @@
         <v>5786035</v>
       </c>
       <c r="E81" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F81">
         <v>6</v>
       </c>
       <c r="G81" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H81">
         <v>1323</v>
       </c>
       <c r="I81" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J81">
         <v>40</v>
       </c>
       <c r="L81" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N81">
         <v>40</v>
@@ -7255,10 +5902,10 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="B82" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="C82">
         <v>943384</v>
@@ -7267,25 +5914,25 @@
         <v>5790867</v>
       </c>
       <c r="E82" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F82">
         <v>6</v>
       </c>
       <c r="G82" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H82">
         <v>1323</v>
       </c>
       <c r="I82" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J82">
         <v>14</v>
       </c>
       <c r="L82" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N82">
         <v>14</v>
@@ -7297,10 +5944,10 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="B83" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="C83">
         <v>943436</v>
@@ -7309,25 +5956,25 @@
         <v>5795160</v>
       </c>
       <c r="E83" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F83">
         <v>6</v>
       </c>
       <c r="G83" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H83">
         <v>1323</v>
       </c>
       <c r="I83" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J83">
         <v>10</v>
       </c>
       <c r="L83" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N83">
         <v>10</v>
